--- a/python_examples/Portfolio/FRTB/FRTB_Params_BCBS.xlsx
+++ b/python_examples/Portfolio/FRTB/FRTB_Params_BCBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serdar/Desktop/FRTB_git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844F199B-7E84-1346-B9E5-5DD24DC32F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD29C66-48D4-924A-89BA-6DC2D520D53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{32F1EB3C-AC1B-7747-8D6E-0E0BEA37BB09}"/>
   </bookViews>
@@ -42,9 +42,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
   <si>
-    <t>tenor</t>
-  </si>
-  <si>
     <t>RiskWeight</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>Reference:MAR21, par. 21.59</t>
+  </si>
+  <si>
+    <t>Tenor</t>
   </si>
 </sst>
 </file>
@@ -485,7 +485,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -495,40 +495,40 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1.6E-2</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1.2999999999999999E-2</v>
@@ -544,7 +544,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>1.2E-2</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>1.0999999999999999E-2</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>1.0999999999999999E-2</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>1.0999999999999999E-2</v>
@@ -576,7 +576,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>1.0999999999999999E-2</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>1.0999999999999999E-2</v>
@@ -608,42 +608,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0.97</v>
@@ -713,7 +713,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0.91400000000000003</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0.81100000000000005</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0.71899999999999997</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0.56599999999999995</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0.4</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>0.4</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0.4</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>0.4</v>
@@ -1012,15 +1012,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -1046,12 +1046,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1078,12 +1078,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>0.5</v>
